--- a/biology/Médecine/Ola_Orekunrin/Ola_Orekunrin.xlsx
+++ b/biology/Médecine/Ola_Orekunrin/Ola_Orekunrin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Olamide Orekunrin, née en 1986 ou 1987, est une femme médecin britannico-nigériane et directrice générale de Flying Doctors Nigeria (en) (« Médecins Volants du Nigeria »), un organisme de bienfaisance basé à Lagos, au Nigeria[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olamide Orekunrin, née en 1986 ou 1987, est une femme médecin britannico-nigériane et directrice générale de Flying Doctors Nigeria (en) (« Médecins Volants du Nigeria »), un organisme de bienfaisance basé à Lagos, au Nigeria,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Enfance et éducation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ola Orekunrin est née à Londres, en Angleterre et grandit sous la garde de parents d'accueil à Lowestoft. Son nom « Ola » signifie « Richesse » en Yoruba[3]. Ola est diplômée de la Hull York Medical School (en) à l'âge de 21 ans, devenant l'une des plus jeunes médecins au Royaume-Uni[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ola Orekunrin est née à Londres, en Angleterre et grandit sous la garde de parents d'accueil à Lowestoft. Son nom « Ola » signifie « Richesse » en Yoruba. Ola est diplômée de la Hull York Medical School (en) à l'âge de 21 ans, devenant l'une des plus jeunes médecins au Royaume-Uni.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Carrière médicale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après l'obtention du diplôme, elle travaille pendant dix ans avec le National Health Service du Royaume-Uni. En tant que pilote d'hélicoptère avec une formation spécialisée en médecine aéronautique, elle lance le premier service d'aide médicale urgente aérien à Lagos, au Nigeria : « Flying Doctors Nigeria Ltd ». Elle crée l'organisme de bienfaisance après la perte de sa sœur dans des circonstances difficiles et pour apaiser les problèmes de services médicaux d'urgence au Nigeria. L'organisme est créé en 2007 et elle en est  la directrice[5],[6],[7]. Elle est membre de l'Académie Américaine des Chirurgiens Esthétiques et de la British Medical Association. Elle est classée parmi les jeunes cheffes de file au niveau mondial par le Forum Économique Mondial en 2013[8],[9],[10]. Ola donne également des conférences sur l'entrepreneuriat à l'Institut de Technologie du Massachusetts[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après l'obtention du diplôme, elle travaille pendant dix ans avec le National Health Service du Royaume-Uni. En tant que pilote d'hélicoptère avec une formation spécialisée en médecine aéronautique, elle lance le premier service d'aide médicale urgente aérien à Lagos, au Nigeria : « Flying Doctors Nigeria Ltd ». Elle crée l'organisme de bienfaisance après la perte de sa sœur dans des circonstances difficiles et pour apaiser les problèmes de services médicaux d'urgence au Nigeria. L'organisme est créé en 2007 et elle en est  la directrice. Elle est membre de l'Académie Américaine des Chirurgiens Esthétiques et de la British Medical Association. Elle est classée parmi les jeunes cheffes de file au niveau mondial par le Forum Économique Mondial en 2013. Ola donne également des conférences sur l'entrepreneuriat à l'Institut de Technologie du Massachusetts.
 </t>
         </is>
       </c>
